--- a/Buildings Inventories.xlsx
+++ b/Buildings Inventories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SATNOORK\Desktop\CLT Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D525A1-3EF7-4CBC-8C01-EFCE59EDC8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883AFDF8-2472-42C8-84D8-56DD82076AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7A2CE00C-D3E8-422A-BFD6-0D4DBE96A884}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7A2CE00C-D3E8-422A-BFD6-0D4DBE96A884}"/>
   </bookViews>
   <sheets>
     <sheet name="Katerra Building" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <author>tc={53E74B2B-6FD6-424F-ACF2-8866EBF3E79B}</author>
     <author>tc={3D434560-59EA-4497-BC8E-E1F707B10BF8}</author>
     <author>tc={C19D8CFA-6DB3-4797-9AD8-E2228BDE30FD}</author>
+    <author>tc={41BF9B5C-A684-4DD7-B34B-7D75CED82729}</author>
     <author>tc={EE9295A5-CC90-4CE3-8B32-C38AF384E67C}</author>
     <author>tc={333F6C37-B3B1-46AA-83B0-9ED0078E6DEF}</author>
     <author>tc={E4A7871E-C063-48E8-84DA-5D0005A95EAA}</author>
@@ -102,7 +103,15 @@
     CLT (SPF)</t>
       </text>
     </comment>
-    <comment ref="D39" authorId="6" shapeId="0" xr:uid="{EE9295A5-CC90-4CE3-8B32-C38AF384E67C}">
+    <comment ref="I38" authorId="6" shapeId="0" xr:uid="{41BF9B5C-A684-4DD7-B34B-7D75CED82729}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Approximation; add numbers later</t>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="7" shapeId="0" xr:uid="{EE9295A5-CC90-4CE3-8B32-C38AF384E67C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -110,7 +119,7 @@
     CLT (SPF)</t>
       </text>
     </comment>
-    <comment ref="D47" authorId="7" shapeId="0" xr:uid="{333F6C37-B3B1-46AA-83B0-9ED0078E6DEF}">
+    <comment ref="D47" authorId="8" shapeId="0" xr:uid="{333F6C37-B3B1-46AA-83B0-9ED0078E6DEF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,7 +127,7 @@
     CLT (SPF)</t>
       </text>
     </comment>
-    <comment ref="H55" authorId="8" shapeId="0" xr:uid="{E4A7871E-C063-48E8-84DA-5D0005A95EAA}">
+    <comment ref="H55" authorId="9" shapeId="0" xr:uid="{E4A7871E-C063-48E8-84DA-5D0005A95EAA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="382">
   <si>
     <t>Building:</t>
   </si>
@@ -1340,6 +1349,21 @@
   <si>
     <t>Glazing, triple (3-IV), U&lt;0.5 W/m2K, at plant/US- US-EI U</t>
   </si>
+  <si>
+    <t>Sand, at mine/US* US-EI U</t>
+  </si>
+  <si>
+    <t>Roof Shingle</t>
+  </si>
+  <si>
+    <t>Gypsum plaster board</t>
+  </si>
+  <si>
+    <t>Polystyrene, extruded (XPS), HFC-134a blown, at plant/US- US-EI U</t>
+  </si>
+  <si>
+    <t>https://www.rockwool.com/siteassets/o2-rockwool/documentation/epd/rockwool-stone-wool-environmental-product-declaration-epd.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -1348,7 +1372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,6 +1435,12 @@
       <color rgb="FF222222"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1450,7 +1480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1560,12 +1590,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBEBE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBEBEBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBEBEBE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBEBE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1622,9 +1685,6 @@
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1645,24 +1705,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1695,6 +1737,39 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1781,7 +1856,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Atnoorkar, Swaroop" id="{F037DC67-3476-4BC7-98A0-62109E57C60F}" userId="S::satnoork@nrel.gov::336d81e0-1666-40e8-9078-c7b64847ac10" providerId="AD"/>
+  <person displayName="Swaroop" id="{F037DC67-3476-4BC7-98A0-62109E57C60F}" userId="S::satnoork@nrel.gov::336d81e0-1666-40e8-9078-c7b64847ac10" providerId="AD"/>
 </personList>
 </file>
 
@@ -2100,6 +2175,9 @@
   <threadedComment ref="D21" dT="2020-05-18T22:19:17.07" personId="{F037DC67-3476-4BC7-98A0-62109E57C60F}" id="{C19D8CFA-6DB3-4797-9AD8-E2228BDE30FD}">
     <text>CLT (SPF)</text>
   </threadedComment>
+  <threadedComment ref="I38" dT="2020-06-22T15:22:28.65" personId="{F037DC67-3476-4BC7-98A0-62109E57C60F}" id="{41BF9B5C-A684-4DD7-B34B-7D75CED82729}">
+    <text>Approximation; add numbers later</text>
+  </threadedComment>
   <threadedComment ref="D39" dT="2020-05-18T22:19:17.07" personId="{F037DC67-3476-4BC7-98A0-62109E57C60F}" id="{EE9295A5-CC90-4CE3-8B32-C38AF384E67C}">
     <text>CLT (SPF)</text>
   </threadedComment>
@@ -2130,607 +2208,607 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481B4621-BD57-4B43-B67C-32759F5731EC}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="23" style="23" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="23"/>
-    <col min="11" max="11" width="49.77734375" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="11" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="23" style="22" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="22"/>
+    <col min="11" max="11" width="49.77734375" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>168805</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <f>B5*0.0929</f>
         <v>15681.984499999999</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="22" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>1593</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>3</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>0.54400000000000004</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="28" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>33</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>3</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>2291</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>3</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>573</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>3</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>23.9</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>3</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>0</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="22" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>534</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <f>5.11+0.248+2.94*0.00001+0.0926+0.0157+0.029</f>
         <v>5.4953294000000001</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>0.41599999999999998</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="28" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>10519</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <f>5.11+0.248+2.94*0.00001+0.0926+0.0157+0.029</f>
         <v>5.4953294000000001</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>0.41599999999999998</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="28" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>22.8</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>1.86</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <f>24.9+2.24+1.52*0.00001+0.121+0.145+1.03</f>
         <v>28.4360152</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="22" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>41.2</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>3</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>242</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>56.023285100000003</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>2.5139999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>4.3</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <f>5.2+0.582+6.94*0.000001+0.0603+0.0206+0.0557</f>
         <v>5.9186069399999992</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>4.6019399999999999</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>18.3</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>3</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>430</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>95</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="35" t="s">
         <v>43</v>
       </c>
       <c r="I22">
@@ -2740,72 +2818,72 @@
       <c r="J22">
         <v>280</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="22" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>4.2</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <f>21.9+1.87+1.18*0.00001+0.158+0.00874+0.217</f>
         <v>24.153751799999998</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>1.6</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="22" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>471</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="35" t="s">
         <v>43</v>
       </c>
       <c r="I24">
@@ -2815,65 +2893,65 @@
       <c r="J24">
         <v>280</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>23</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>3</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>353</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="35" t="s">
         <v>49</v>
       </c>
       <c r="I26">
@@ -2883,50 +2961,50 @@
       <c r="J26">
         <v>280</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>17.3</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>3</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="46.8" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2938,34 +3016,34 @@
       <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="38" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>9.5300000000000003E-3</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <f>0.122+0.0318+9.26*0.0000001+0.000665+0.00204+0.00292</f>
         <v>0.15942592600000002</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="22" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2977,10 +3055,10 @@
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="36" t="s">
         <v>63</v>
       </c>
       <c r="I29">
@@ -2990,18 +3068,18 @@
       <c r="J29">
         <v>280</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="22" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="28.8">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3013,27 +3091,27 @@
       <c r="F30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="38" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>3</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="28.8">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3045,10 +3123,10 @@
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="36" t="s">
         <v>43</v>
       </c>
       <c r="I31">
@@ -3058,18 +3136,18 @@
       <c r="J31">
         <v>280</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="22" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="28.8">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3081,27 +3159,27 @@
       <c r="F32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="38" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>3</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28.8">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3113,10 +3191,10 @@
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="36" t="s">
         <v>68</v>
       </c>
       <c r="I33">
@@ -3126,18 +3204,18 @@
       <c r="J33">
         <v>280</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="22" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3149,27 +3227,27 @@
       <c r="F34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="38" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>3</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -3181,27 +3259,27 @@
       <c r="F35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>3</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.8">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -3213,33 +3291,33 @@
       <c r="F36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>3</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>4</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="22" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="46" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -3257,21 +3335,21 @@
       <c r="H37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>3</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="57.6">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="46" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -3289,24 +3367,28 @@
       <c r="H38" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="23">
-        <v>3</v>
-      </c>
-      <c r="J38" s="23">
-        <v>4</v>
+      <c r="I38" s="22">
+        <v>33</v>
+      </c>
+      <c r="J38" s="22">
+        <f>1.31+0.425+0.3+5.29*0.001+2.2*0.01-9.94*0.01</f>
+        <v>1.96289</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28.8">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>161</v>
       </c>
       <c r="E39" s="15">
@@ -3321,21 +3403,21 @@
       <c r="H39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>3</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="57.6">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="46" t="s">
         <v>84</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -3353,21 +3435,21 @@
       <c r="H40" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>3</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="57.6">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="46" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -3385,21 +3467,21 @@
       <c r="H41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>3</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.8">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="46" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -3417,21 +3499,21 @@
       <c r="H42" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>3</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -3449,24 +3531,24 @@
       <c r="H43" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <v>3</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="48" t="s">
         <v>97</v>
       </c>
       <c r="E44" s="15">
@@ -3481,24 +3563,24 @@
       <c r="H44" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>3</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="28.8">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="48" t="s">
         <v>99</v>
       </c>
       <c r="E45" s="15">
@@ -3513,24 +3595,24 @@
       <c r="H45" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <v>3</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="43.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="51" t="s">
         <v>101</v>
       </c>
       <c r="E46" s="16">
@@ -3545,24 +3627,24 @@
       <c r="H46" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>3</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="28.8">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>161</v>
       </c>
       <c r="E47" s="2">
@@ -3577,21 +3659,21 @@
       <c r="H47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>3</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="28.8">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="42" t="s">
         <v>105</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3609,21 +3691,21 @@
       <c r="H48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>3</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28.8">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:11" ht="28.8">
+      <c r="A49" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="42" t="s">
         <v>108</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3641,21 +3723,21 @@
       <c r="H49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>3</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="28.8">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:11" ht="28.8">
+      <c r="A50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="43" t="s">
         <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3673,21 +3755,21 @@
       <c r="H50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>3</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="57.6">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:11" ht="57.6">
+      <c r="A51" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="43" t="s">
         <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3705,21 +3787,21 @@
       <c r="H51" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>3</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28.8">
-      <c r="A52" s="22" t="s">
+    <row r="52" spans="1:11" ht="28.8">
+      <c r="A52" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="42" t="s">
         <v>117</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3737,21 +3819,21 @@
       <c r="H52" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>3</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="86.4">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:11" ht="86.4">
+      <c r="A53" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="42" t="s">
         <v>120</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3769,21 +3851,21 @@
       <c r="H53" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>3</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="28.8">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:11" ht="28.8">
+      <c r="A54" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="42" t="s">
         <v>78</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3801,21 +3883,24 @@
       <c r="H54" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>3</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="28.8">
-      <c r="A55" s="22" t="s">
+      <c r="K54" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="28.8">
+      <c r="A55" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="44" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -3833,10 +3918,10 @@
       <c r="H55" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>3</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>4</v>
       </c>
     </row>
@@ -3844,19 +3929,20 @@
   <hyperlinks>
     <hyperlink ref="K14" r:id="rId1" display="https://theconstructor.org/concrete/lightweight-concrete/1670/" xr:uid="{6152F4D9-167D-45F8-9EC3-E51D7EBA61F7}"/>
     <hyperlink ref="K15" r:id="rId2" display="https://theconstructor.org/concrete/lightweight-concrete/1670/" xr:uid="{CEB16906-7C1A-440B-9D4B-AE8BC5EEA167}"/>
+    <hyperlink ref="K38" r:id="rId3" xr:uid="{7C7510D9-AD4E-4097-B1DD-F43F7C58739D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54F4F69-C3EA-48D8-B8A1-99B264AD1132}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3869,78 +3955,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="37">
         <v>498590</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f>B5*0.0929</f>
         <v>46319.010999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>12</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B8" t="s">
@@ -3969,13 +4055,13 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="37">
         <v>253929</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="37">
         <v>115180</v>
       </c>
       <c r="G10">
@@ -3989,13 +4075,13 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="37">
         <v>157464</v>
       </c>
       <c r="E11">
         <v>0.3</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="37">
         <v>71424</v>
       </c>
       <c r="G11">
@@ -4009,13 +4095,13 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="37">
         <v>4385956</v>
       </c>
       <c r="E12">
         <v>8.6</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="37">
         <v>1989436</v>
       </c>
       <c r="G12">
@@ -4029,13 +4115,13 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="37">
         <v>84240</v>
       </c>
       <c r="E13">
         <v>0.2</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="37">
         <v>38211</v>
       </c>
       <c r="G13">
@@ -4049,13 +4135,13 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="37">
         <v>474240</v>
       </c>
       <c r="E14">
         <v>0.9</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="37">
         <v>215112</v>
       </c>
       <c r="G14">
@@ -4069,13 +4155,13 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="37">
         <v>136575</v>
       </c>
       <c r="E15">
         <v>0.3</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="37">
         <v>61950</v>
       </c>
       <c r="G15">
@@ -4089,13 +4175,13 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="37">
         <v>32893</v>
       </c>
       <c r="E16">
         <v>0.1</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="37">
         <v>14920</v>
       </c>
       <c r="G16">
@@ -4103,16 +4189,16 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" t="s">
+      <c r="B17" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="37">
         <v>32935</v>
       </c>
       <c r="E17">
         <v>0.1</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="37">
         <v>14939</v>
       </c>
       <c r="G17">
@@ -4120,16 +4206,16 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" t="s">
+      <c r="B18" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="37">
         <v>15941</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="37">
         <v>7231</v>
       </c>
       <c r="G18">
@@ -4137,16 +4223,16 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" t="s">
+      <c r="B19" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="37">
         <v>174654</v>
       </c>
       <c r="E19">
         <v>0.3</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="37">
         <v>79222</v>
       </c>
       <c r="G19">
@@ -4154,16 +4240,16 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" t="s">
+      <c r="B20" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="37">
         <v>5161</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="37">
         <v>2341</v>
       </c>
       <c r="G20">
@@ -4174,13 +4260,13 @@
       <c r="B21" t="s">
         <v>353</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="37">
         <v>2946933</v>
       </c>
       <c r="E21">
         <v>5.6</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="37">
         <v>1336706</v>
       </c>
       <c r="G21">
@@ -4194,13 +4280,13 @@
       <c r="C22" t="s">
         <v>372</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="37">
         <v>60257860</v>
       </c>
       <c r="E22">
         <v>117.7</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="37">
         <v>27332506</v>
       </c>
       <c r="G22">
@@ -4214,13 +4300,13 @@
       <c r="C23" t="s">
         <v>372</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="37">
         <v>1810836</v>
       </c>
       <c r="E23">
         <v>3.5</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="37">
         <v>821381</v>
       </c>
       <c r="G23">
@@ -4234,13 +4320,13 @@
       <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="37">
         <v>968760</v>
       </c>
       <c r="E24">
         <v>1.9</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="37">
         <v>439422</v>
       </c>
       <c r="G24">
@@ -4251,13 +4337,13 @@
       <c r="B25" t="s">
         <v>356</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="37">
         <v>1570617</v>
       </c>
       <c r="E25">
         <v>3.1</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="37">
         <v>712420</v>
       </c>
       <c r="G25">
@@ -4268,13 +4354,13 @@
       <c r="B26" t="s">
         <v>357</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="37">
         <v>5453760</v>
       </c>
       <c r="E26">
         <v>10.7</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="37">
         <v>2473784</v>
       </c>
       <c r="G26">
@@ -4285,13 +4371,13 @@
       <c r="B27" t="s">
         <v>358</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="37">
         <v>378268</v>
       </c>
       <c r="E27">
         <v>0.7</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="37">
         <v>171579</v>
       </c>
       <c r="G27">
@@ -4302,13 +4388,16 @@
       <c r="B28" t="s">
         <v>359</v>
       </c>
-      <c r="D28" s="44">
+      <c r="C28" t="s">
+        <v>378</v>
+      </c>
+      <c r="D28" s="37">
         <v>58119</v>
       </c>
       <c r="E28">
         <v>0.1</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="37">
         <v>26362</v>
       </c>
       <c r="G28">
@@ -4319,13 +4408,13 @@
       <c r="B29" t="s">
         <v>360</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="37">
         <v>688905</v>
       </c>
       <c r="E29">
         <v>1.3</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="37">
         <v>312482</v>
       </c>
       <c r="G29">
@@ -4336,13 +4425,16 @@
       <c r="B30" t="s">
         <v>361</v>
       </c>
-      <c r="D30" s="44">
+      <c r="C30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" s="37">
         <v>320479</v>
       </c>
       <c r="E30">
         <v>0.6</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="37">
         <v>145367</v>
       </c>
       <c r="G30">
@@ -4353,13 +4445,13 @@
       <c r="B31" t="s">
         <v>362</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="37">
         <v>132822</v>
       </c>
       <c r="E31">
         <v>0.3</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="37">
         <v>60247</v>
       </c>
       <c r="G31">
@@ -4367,90 +4459,93 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="37">
         <v>320918</v>
       </c>
       <c r="E32">
         <v>0.6</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="37">
         <v>145566</v>
       </c>
       <c r="G32">
         <v>3.1</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:8">
       <c r="B33" t="s">
         <v>364</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="37">
         <v>7032</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="37">
         <v>3190</v>
       </c>
       <c r="G33">
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="48" t="s">
+    <row r="34" spans="2:8">
+      <c r="B34" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="37">
         <v>21153</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="37">
         <v>9595</v>
       </c>
       <c r="G34">
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
         <v>365</v>
       </c>
       <c r="C35" t="s">
         <v>341</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="37">
         <v>656100</v>
       </c>
       <c r="E35">
         <v>1.3</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="37">
         <v>297602</v>
       </c>
       <c r="G35">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="H35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>366</v>
       </c>
       <c r="C36" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="37">
         <v>1377810</v>
       </c>
       <c r="E36">
         <v>2.7</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="37">
         <v>624964</v>
       </c>
       <c r="G36">
@@ -4480,57 +4575,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <f>D5*3.3*3.3</f>
         <v>154997.36999999997</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>14233</v>
       </c>
       <c r="E5" t="s">
@@ -4538,17 +4633,17 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>316</v>
       </c>
       <c r="B7">
@@ -4556,51 +4651,51 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="22" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B10" t="s">
@@ -4624,7 +4719,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
@@ -4648,7 +4743,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B12" t="s">
@@ -4672,7 +4767,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
@@ -4696,7 +4791,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
@@ -4720,7 +4815,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>327</v>
       </c>
       <c r="B15" t="s">
@@ -4744,7 +4839,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>327</v>
       </c>
       <c r="B16" t="s">
@@ -4768,7 +4863,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>327</v>
       </c>
       <c r="B17" t="s">
@@ -4792,7 +4887,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>327</v>
       </c>
       <c r="B18" t="s">
@@ -4816,7 +4911,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>327</v>
       </c>
       <c r="B19" t="s">
@@ -4840,7 +4935,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>327</v>
       </c>
       <c r="B20" t="s">
@@ -4848,7 +4943,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>328</v>
       </c>
       <c r="B21" t="s">
@@ -4862,7 +4957,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>328</v>
       </c>
       <c r="B22" t="s">
@@ -4870,7 +4965,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>328</v>
       </c>
       <c r="B23" t="s">
@@ -4881,7 +4976,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>328</v>
       </c>
       <c r="B24" t="s">
@@ -4895,7 +4990,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>328</v>
       </c>
       <c r="B25" t="s">
@@ -4910,7 +5005,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>328</v>
       </c>
       <c r="B26" t="s">
@@ -4918,7 +5013,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>328</v>
       </c>
       <c r="B27" t="s">
@@ -4967,7 +5062,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="21">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="31" t="s">
         <v>304</v>
       </c>
       <c r="B3">
@@ -4975,7 +5070,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="21">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="32" t="s">
         <v>305</v>
       </c>
       <c r="B4">
@@ -4983,7 +5078,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="21">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="31" t="s">
         <v>306</v>
       </c>
       <c r="B5">
@@ -4991,7 +5086,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="21">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="31" t="s">
         <v>307</v>
       </c>
       <c r="B6">
@@ -4999,7 +5094,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="21">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="31" t="s">
         <v>308</v>
       </c>
       <c r="B7">
@@ -5007,7 +5102,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="21">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="32" t="s">
         <v>309</v>
       </c>
       <c r="B8">
@@ -5016,7 +5111,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="21">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="32" t="s">
         <v>310</v>
       </c>
       <c r="B9">
@@ -5025,7 +5120,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="21">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="31" t="s">
         <v>311</v>
       </c>
       <c r="B11">
@@ -5033,7 +5128,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="21">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="31" t="s">
         <v>312</v>
       </c>
       <c r="B12">
@@ -6998,7 +7093,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -7009,7 +7104,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -7017,7 +7112,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -7025,7 +7120,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>128</v>
       </c>
       <c r="B4" t="s">
@@ -7033,7 +7128,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B5">
@@ -7042,7 +7137,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>203</v>
       </c>
       <c r="B6">
@@ -7050,14 +7145,14 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -7643,7 +7738,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -7651,7 +7746,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -7659,7 +7754,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -7667,7 +7762,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>128</v>
       </c>
       <c r="B4" t="s">
@@ -7675,7 +7770,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B5">
@@ -7684,7 +7779,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>203</v>
       </c>
       <c r="B6">
@@ -7692,7 +7787,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -8405,7 +8500,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -8413,7 +8508,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -8421,7 +8516,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -8429,7 +8524,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>128</v>
       </c>
       <c r="B4" t="s">
@@ -8437,7 +8532,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B5">
@@ -8446,7 +8541,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>203</v>
       </c>
       <c r="B6">
@@ -8454,7 +8549,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
